--- a/producto/cotizacion.xlsx
+++ b/producto/cotizacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Catálogos:</t>
   </si>
@@ -290,7 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,9 @@
     <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -440,9 +443,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,7 +726,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,30 +751,30 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>500</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="19">
         <v>500</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>500</v>
       </c>
-      <c r="C3" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>55</v>
       </c>
       <c r="H3">
@@ -782,79 +782,79 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>500</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="19">
         <v>1500</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>55</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <f>H3/H4</f>
-        <v>2.9375</v>
+        <f>H4/H3</f>
+        <v>0.38297872340425532</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>500</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>2000</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>500</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>2500</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>500</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <v>3000</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>500</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <v>3500</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -926,16 +926,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>1500</v>
       </c>
-      <c r="C15" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -951,58 +951,58 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="19">
         <v>5500</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="19">
         <v>6500</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="19">
         <v>7500</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B20" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="19">
         <v>8500</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1019,25 +1019,31 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1000</v>
+      <c r="B22" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="19">
         <v>2000</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1120,58 +1126,58 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C31" s="18">
-        <v>1000</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="B31" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C32" s="18">
+      <c r="B32" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="19">
         <v>2000</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C33" s="18">
+      <c r="B33" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="19">
         <v>3000</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="18">
+      <c r="B34" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="19">
         <v>4000</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1182,7 +1188,7 @@
       <c r="B35" s="5">
         <v>1000</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="17">
         <v>5000</v>
       </c>
     </row>
@@ -1193,7 +1199,7 @@
       <c r="B36" s="5">
         <v>1000</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="17">
         <v>6000</v>
       </c>
     </row>
@@ -1204,7 +1210,7 @@
       <c r="B37" s="5">
         <v>1000</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="17">
         <v>7000</v>
       </c>
     </row>
@@ -1215,7 +1221,7 @@
       <c r="B38" s="5">
         <v>1000</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="17">
         <v>8000</v>
       </c>
     </row>

--- a/producto/cotizacion.xlsx
+++ b/producto/cotizacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Catálogos:</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Cancelacion de abonos a proveedores</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +297,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -383,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,6 +452,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,7 +742,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +750,7 @@
     <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,11 +812,11 @@
         <v>55</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <f>H4/H3</f>
-        <v>0.38297872340425532</v>
+        <v>0.40425531914893614</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -870,14 +887,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="22">
         <v>500</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="22">
         <v>4500</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1182,14 +1202,17 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="B35" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="19">
         <v>5000</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
